--- a/Coursework/Coursework2/Dataset1Accuracyresults.xlsx
+++ b/Coursework/Coursework2/Dataset1Accuracyresults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joegr\Repos\ME4MachineLearning\Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joegr\Repos\ME4MachineLearning\Coursework\Coursework2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C3B5C3-2ED4-42E3-9EFD-7F276EB2DA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C44AEE2-79F5-4068-B046-0B6B254CE407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE0942A0-5417-4FB4-8ABE-D524BD3B256D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CE0942A0-5417-4FB4-8ABE-D524BD3B256D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,6 +530,9 @@
       <c r="F2" t="s">
         <v>22</v>
       </c>
+      <c r="G2">
+        <v>64.75</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -550,6 +553,9 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
+      <c r="G3">
+        <v>60.8</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -570,6 +576,9 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
+      <c r="G4">
+        <v>50.1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -590,6 +599,9 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -610,6 +622,9 @@
       <c r="F6" t="s">
         <v>26</v>
       </c>
+      <c r="G6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -680,6 +695,9 @@
       </c>
       <c r="F10" t="s">
         <v>27</v>
+      </c>
+      <c r="G10">
+        <v>50.2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/Coursework/Coursework2/Dataset1Accuracyresults.xlsx
+++ b/Coursework/Coursework2/Dataset1Accuracyresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joegr\Repos\ME4MachineLearning\Coursework\Coursework2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C44AEE2-79F5-4068-B046-0B6B254CE407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F4034F-885F-43B5-B9F9-72BD5F8F6EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CE0942A0-5417-4FB4-8ABE-D524BD3B256D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE0942A0-5417-4FB4-8ABE-D524BD3B256D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
   <si>
     <t>Hidden layers</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>Peters script accuracy</t>
+  </si>
+  <si>
+    <t>100 Epochs</t>
+  </si>
+  <si>
+    <t>500 epochs</t>
+  </si>
+  <si>
+    <t>400 Epochs</t>
   </si>
 </sst>
 </file>
@@ -476,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE70F428-AAEF-43CB-9F63-AD6AE94909C7}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,9 +498,11 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +521,17 @@
       <c r="G1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -531,10 +551,10 @@
         <v>22</v>
       </c>
       <c r="G2">
-        <v>64.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -554,10 +574,10 @@
         <v>23</v>
       </c>
       <c r="G3">
-        <v>60.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -577,10 +597,10 @@
         <v>24</v>
       </c>
       <c r="G4">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -600,10 +620,19 @@
         <v>25</v>
       </c>
       <c r="G5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88.3</v>
+      </c>
+      <c r="H5">
+        <v>90.6</v>
+      </c>
+      <c r="I5">
+        <v>92</v>
+      </c>
+      <c r="J5">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -623,10 +652,10 @@
         <v>26</v>
       </c>
       <c r="G6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -643,7 +672,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -660,7 +689,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -677,7 +706,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -697,10 +726,10 @@
         <v>27</v>
       </c>
       <c r="G10">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -717,7 +746,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -734,7 +763,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -751,7 +780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -768,7 +797,7 @@
         <v>91.1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -785,7 +814,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
